--- a/QueriesExcel/5.xlsx
+++ b/QueriesExcel/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E7C94-4ED8-4B52-9568-4829FBF8E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1906FF1-635D-4EAA-AA91-3E8749659058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5568F4C4-775E-4B07-91FE-B24E363ABA8D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="86" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -737,13 +737,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     </dxf>
@@ -770,7 +764,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.920459374996" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{28CFDD3B-80E8-4DB8-AAB5-E482323C75DE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.033121180553" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{28CFDD3B-80E8-4DB8-AAB5-E482323C75DE}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Order Date].[Last Day Of Month Indicator].[Last Day Of Month Indicator]" caption="Last Day Of Month Indicator" numFmtId="0" hierarchy="87" level="1">
@@ -944,7 +938,7 @@
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Month Name]" caption="Order Date.Month Name" attribute="1" defaultMemberUniqueName="[Order Date].[Month Name].[All]" allUniqueName="[Order Date].[Month Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1079,7 +1073,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B49921B6-CFCD-4035-BBB0-E31836F4396B}" name="PivotTable1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B49921B6-CFCD-4035-BBB0-E31836F4396B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A5:Y23" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -1288,7 +1282,7 @@
     <dataField fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1297,7 +1291,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1813,7 +1807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEBC1A8-0FF5-4170-ACF2-3194033A86C3}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2065,7 +2061,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5">
-        <v>0</v>
+        <v>158.4</v>
       </c>
       <c r="M10" s="4">
         <v>198</v>
@@ -2075,7 +2071,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="5">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S10" s="4">
         <v>11</v>
@@ -2085,7 +2081,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="4"/>
       <c r="X10" s="5">
-        <v>0</v>
+        <v>167.20000000000002</v>
       </c>
       <c r="Y10" s="4">
         <v>209</v>
@@ -2143,19 +2139,19 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
       <c r="T12" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U12" s="4">
         <v>35</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W12" s="4">
         <v>11</v>
       </c>
       <c r="X12" s="5">
-        <v>0</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="Y12" s="4">
         <v>46</v>
@@ -2199,7 +2195,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4">
         <v>80</v>
@@ -2225,7 +2221,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="4"/>
       <c r="X14" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="4">
         <v>80</v>
@@ -2277,7 +2273,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="O16" s="4">
         <v>16</v>
@@ -2291,7 +2287,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="4"/>
       <c r="X16" s="5">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="Y16" s="4">
         <v>16</v>
@@ -2399,7 +2395,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="E20" s="4">
         <v>288</v>
@@ -2427,7 +2423,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="4"/>
       <c r="X20" s="5">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="Y20" s="4">
         <v>288</v>
@@ -2467,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4">
         <v>145</v>
@@ -2493,7 +2489,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="4"/>
       <c r="X22" s="5">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Y22" s="4">
         <v>145</v>
@@ -2504,19 +2500,19 @@
         <v>13</v>
       </c>
       <c r="B23" s="5">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4">
         <v>145</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="E23" s="4">
         <v>288</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4">
         <v>80</v>
@@ -2534,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>0</v>
+        <v>158.4</v>
       </c>
       <c r="M23" s="4">
         <v>198</v>
       </c>
       <c r="N23" s="5">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="O23" s="4">
         <v>16</v>
@@ -2552,25 +2548,25 @@
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S23" s="4">
         <v>11</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U23" s="4">
         <v>35</v>
       </c>
       <c r="V23" s="5">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W23" s="4">
         <v>11</v>
       </c>
       <c r="X23" s="5">
-        <v>0</v>
+        <v>627.19999999999993</v>
       </c>
       <c r="Y23" s="4">
         <v>784</v>
